--- a/contents/Luna/몬스터-어둑시니_패턴05_18_fix1.xlsx
+++ b/contents/Luna/몬스터-어둑시니_패턴05_18_fix1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\GitHub\wep_atens\contents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\GitHub\wep_atens\contents\Luna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1467F3C-FAE7-4001-AE3A-303205E92FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551D2692-DC32-4D77-8F25-19692EA4BBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34AE3799-3BB6-4C26-A362-37947986EAAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{34AE3799-3BB6-4C26-A362-37947986EAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="어둑시니" sheetId="5" r:id="rId1"/>
@@ -459,12 +459,6 @@
     <t>NS_Col_SL_15</t>
   </si>
   <si>
-    <t>외눈 요괴는 단순한 일반 몬스터 이기 때문에
-고사양 AI 또는 다양한 이동을 필요로하지 않는다.
-플레이어에게 다가가 공격만 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어에게 접근 후 횡배기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -720,6 +714,11 @@
   <si>
     <t>Sword_Animations\Animations\Sequence\02_Attack\
 Power_Attack_Loop_Seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외눈 요괴는 단순한 일반 몬스터 이기 때문에
+플레이어 식별시 추적 공격 이상의 AI를 필요로하지 않는다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1153,12 +1152,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1169,9 +1174,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1199,9 +1201,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1520,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35685CDF-3594-4CBA-AB60-9A99A0D91C8A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1556,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>4</v>
@@ -1575,48 +1574,48 @@
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
       <c r="F3" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="57" t="s">
+      <c r="F4" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="58" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="51" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
@@ -1639,148 +1638,148 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="58" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="58"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+    </row>
+    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="57"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="36" t="s">
+      <c r="H9" s="58"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+    </row>
+    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-    </row>
-    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="57" t="s">
+      <c r="G11" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="58"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+    </row>
+    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" s="57" t="s">
+      <c r="F13" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="57"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-    </row>
-    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="57"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="36" t="s">
+      <c r="H13" s="58"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-    </row>
-    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="57"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
@@ -1804,7 +1803,7 @@
       <c r="G15" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="58" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1830,7 +1829,7 @@
       <c r="G16" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="62"/>
+      <c r="H16" s="60"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
@@ -1854,7 +1853,7 @@
       <c r="G17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="62"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
@@ -1878,141 +1877,141 @@
       <c r="G18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="58"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="57" t="s">
-        <v>165</v>
+      <c r="E19" s="58" t="s">
+        <v>164</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="H19" s="57" t="s">
-        <v>140</v>
+        <v>160</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
       <c r="F20" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="36" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="36" t="s">
+      <c r="G22" s="59"/>
+      <c r="H22" s="60"/>
+    </row>
+    <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="60"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="62"/>
-    </row>
-    <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="H23" s="62"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="36" t="s">
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="36" t="s">
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="36" t="s">
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
@@ -2031,7 +2030,7 @@
         <v>91</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
@@ -2074,67 +2073,85 @@
         <v>30</v>
       </c>
       <c r="F30" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="58">
+        <v>20</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="H31" s="58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="36" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="57">
-        <v>20</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="G31" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" s="57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H15:H18"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="B23:B27"/>
@@ -2150,36 +2167,18 @@
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="H19:H22"/>
     <mergeCell ref="H23:H27"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2262,13 +2261,13 @@
         <v>23</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="59"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
@@ -2286,13 +2285,13 @@
         <v>25</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="59"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="61"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
@@ -2310,13 +2309,13 @@
         <v>15</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="59"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="61"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
@@ -2334,13 +2333,13 @@
         <v>59</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="59"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="61"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
@@ -2351,8 +2350,8 @@
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="59"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
@@ -2363,8 +2362,8 @@
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="59"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="61"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
@@ -2416,7 +2415,7 @@
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="53"/>
-      <c r="H12" s="59"/>
+      <c r="H12" s="61"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
@@ -2442,7 +2441,7 @@
       <c r="G13" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="60"/>
+      <c r="H13" s="62"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
@@ -2460,13 +2459,13 @@
         <v>86</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="60"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
@@ -2484,13 +2483,13 @@
         <v>85</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="60"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="62"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
@@ -2511,7 +2510,7 @@
       <c r="F16" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="61"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -2533,7 +2532,7 @@
       <c r="F17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="61"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -2560,7 +2559,7 @@
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
       <c r="G19" s="53"/>
-      <c r="H19" s="59"/>
+      <c r="H19" s="61"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
@@ -2586,7 +2585,7 @@
       <c r="G20" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="60"/>
+      <c r="H20" s="62"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
@@ -2601,14 +2600,14 @@
         <v>19</v>
       </c>
       <c r="D21" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="36" t="s">
-        <v>130</v>
-      </c>
       <c r="F21" s="36"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="60"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="62"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
@@ -2623,14 +2622,14 @@
         <v>19</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F22" s="36"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="60"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
@@ -2645,13 +2644,13 @@
         <v>19</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F23" s="36"/>
-      <c r="G23" s="61"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="1"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -2667,30 +2666,30 @@
         <v>19</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24" s="36"/>
-      <c r="G24" s="61"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="1"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
@@ -2700,7 +2699,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>11</v>
@@ -2709,14 +2708,14 @@
         <v>19</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="59"/>
+      <c r="H26" s="61"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
@@ -2728,7 +2727,7 @@
       <c r="E27" s="36"/>
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
-      <c r="H27" s="59"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
@@ -2740,7 +2739,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="59"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
@@ -2752,7 +2751,7 @@
       <c r="E29" s="36"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="59"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
@@ -2926,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE393D27-080F-4AFA-B414-697D5A2F2158}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2947,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3003,11 +3002,11 @@
         <v>25</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" s="39"/>
-      <c r="H3" s="65" t="s">
-        <v>105</v>
+      <c r="H3" s="66" t="s">
+        <v>170</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -3017,20 +3016,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="45" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>109</v>
-      </c>
       <c r="G4" s="41"/>
-      <c r="H4" s="66"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
@@ -3039,22 +3038,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>75</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" s="41"/>
-      <c r="H5" s="66"/>
+      <c r="H5" s="67"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
@@ -3068,7 +3067,7 @@
       <c r="E6" s="45"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="66"/>
+      <c r="H6" s="67"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
@@ -3082,7 +3081,7 @@
       <c r="E7" s="45"/>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
-      <c r="H7" s="66"/>
+      <c r="H7" s="67"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
@@ -3094,7 +3093,7 @@
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
-      <c r="H8" s="67"/>
+      <c r="H8" s="68"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
@@ -3169,10 +3168,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="68"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
@@ -3186,7 +3185,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="13"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="69"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
@@ -3200,7 +3199,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="13"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="69"/>
+      <c r="H14" s="70"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
@@ -3214,7 +3213,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="70"/>
+      <c r="H15" s="71"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
@@ -3277,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>11</v>
@@ -3286,13 +3285,13 @@
         <v>19</v>
       </c>
       <c r="E19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="62"/>
+      <c r="H19" s="60"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
@@ -3301,7 +3300,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -3310,13 +3309,13 @@
         <v>17</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="63"/>
+      <c r="H20" s="64"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
@@ -3330,7 +3329,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="13"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="63"/>
+      <c r="H21" s="64"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
@@ -3344,7 +3343,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="24"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="64"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
@@ -3546,7 +3545,7 @@
       <c r="G4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="73" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3572,7 +3571,7 @@
       <c r="G5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="68"/>
+      <c r="H5" s="69"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27">
@@ -3596,7 +3595,7 @@
       <c r="G6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="68"/>
+      <c r="H6" s="69"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27">
@@ -3620,7 +3619,7 @@
       <c r="G7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="68"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
@@ -3644,7 +3643,7 @@
       <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="68"/>
+      <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
@@ -3668,7 +3667,7 @@
       <c r="G9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="71"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H10" s="29"/>
@@ -3725,7 +3724,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="18"/>
-      <c r="H13" s="68" t="s">
+      <c r="H13" s="69" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3748,7 +3747,7 @@
       <c r="F14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="68"/>
+      <c r="H14" s="69"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
@@ -3769,7 +3768,7 @@
       <c r="F15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="68"/>
+      <c r="H15" s="69"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
@@ -3781,7 +3780,7 @@
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="71"/>
+      <c r="H16" s="72"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
@@ -3840,7 +3839,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="18"/>
-      <c r="H20" s="68" t="s">
+      <c r="H20" s="69" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3863,7 +3862,7 @@
       <c r="F21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="68"/>
+      <c r="H21" s="69"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="27">
@@ -3884,7 +3883,7 @@
       <c r="F22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="68"/>
+      <c r="H22" s="69"/>
     </row>
     <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
@@ -3904,7 +3903,7 @@
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
-      <c r="H23" s="71"/>
+      <c r="H23" s="72"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
@@ -3958,7 +3957,7 @@
         <v>47</v>
       </c>
       <c r="G27" s="18"/>
-      <c r="H27" s="72" t="s">
+      <c r="H27" s="73" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3981,13 +3980,13 @@
       <c r="F28" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="68"/>
+      <c r="H28" s="69"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>3</v>
       </c>
-      <c r="H29" s="68"/>
+      <c r="H29" s="69"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
@@ -3997,7 +3996,7 @@
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
-      <c r="H30" s="71"/>
+      <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
